--- a/biology/Médecine/Veine/Veine.xlsx
+++ b/biology/Médecine/Veine/Veine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, une veine est un vaisseau sanguin qui permet le transport du sang de la périphérie (organes ou tissus) vers le cœur (retour veineux) :
 des poumons vers le cœur : les veines pulmonaires transportent le sang riche en dioxygène afin qu'il soit redistribué dans l'organisme dans la circulation systémique. Il s'agit de la « petite circulation » (circulation pulmonaire) ;
 des autres organes vers le cœur : les autres veines transportent le sang pauvre en dioxygène et chargé en dioxyde de carbone, afin qu'il soit réoxygéné par les poumons dans la circulation pulmonaire. Il s'agit de la « grande circulation » (circulation générale ou systémique).
-Leur compliance est 24 fois supérieure à celle des artères[1]. Ces veines peuvent donc contenir de grands volumes à de faibles pressions. Cette propriété est la capacitance veineuse. C'est dans les veines qu'on trouve le volume de sang le plus important de tout le système cardio-vasculaire. Ces vaisseaux font office de réservoir de sang. 
+Leur compliance est 24 fois supérieure à celle des artères. Ces veines peuvent donc contenir de grands volumes à de faibles pressions. Cette propriété est la capacitance veineuse. C'est dans les veines qu'on trouve le volume de sang le plus important de tout le système cardio-vasculaire. Ces vaisseaux font office de réservoir de sang. 
 Les intima des veines participe à la formation des valvules qui imposent le sens de circulation du sang et favorisent le retour veineux.   
 D'une part, nous avons les veines supra-cardiaques (au-dessus du cœur), qui assurent le retour veineux à l'aide de la gravité. D'autre part, nous avons les veines infra-cardiaques (en dessous du cœur), qui retournent le sang au cœur par le biais de trois facteurs principaux :  
 L'incompressibilité du sang ;
@@ -528,49 +540,161 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Veinules
-Leur diamètre est compris entre 0,2 et 1 mm et leur structure est assez rudimentaire.
+          <t>Veinules</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur diamètre est compris entre 0,2 et 1 mm et leur structure est assez rudimentaire.
 Elles possèdent une intima limitée a une couche de cellule endothéliales pavimenteuses, pas de tissu conjonctif sous-endothélial, une media très mince présentant quelques couches de cellules musculaires lisses, reposant sur un tissu conjonctif assez développé : c'est l'adventice.
-Veines de moyen calibre
-Ce sont des veines de diamètre inférieur ou égal à 1 cm, leur intima comporte cette fois sur une fine couche de tissu conjonctif sous-endothélial, sur laquelle reposent les cellules pavimenteuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Veine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Veines de moyen calibre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des veines de diamètre inférieur ou égal à 1 cm, leur intima comporte cette fois sur une fine couche de tissu conjonctif sous-endothélial, sur laquelle reposent les cellules pavimenteuses.
 La media est moyennement développée, et est constituée de cellules musculaires lisses disposées de manière concentrique par rapport au vaisseau.
 L'adventice est très épaisse et contient des cellules musculaires lisses cette fois disposées longitudinalement par rapport à l'écoulement sanguin.
 Ces veines possèdent le système de valves (ou valvules), empêchant la circulation veineuse à contre-sens et donc s'opposant à la force de gravité qui pousse le sang vers les membres inférieurs.
-Veines de gros calibre
-Ce sont les veines les plus proches du cœur, de diamètre supérieur à 1 cm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Veine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Veines de gros calibre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les veines les plus proches du cœur, de diamètre supérieur à 1 cm.
 On a une intima classique, comportant une couche de tissu conjonctif plus épaisse que pour la veine de moyen calibre. La media est moyennement développée, comporte des cellules musculaires lisses, disposées de façon concentrique par rapport au vaisseau. On a enfin une adventice très épaisse, de tissu conjonctif présentant des faisceaux musculaires lisses, disposées longitudinalement par rapport au flux sanguin. Elles comprennent les veines caves inférieure et supérieure. Ces veines ne présentent pas des valves.
-Système de valve
-Les veines infra-cardiaques de petit et moyen calibre possèdent ce système de lutte contre la pesanteur. Les valves sont constituées d'un tissu conjonctif dense, surmonté de cellules endothéliales, correspondant à un repli de l'intima.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Veine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Système de valve</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les veines infra-cardiaques de petit et moyen calibre possèdent ce système de lutte contre la pesanteur. Les valves sont constituées d'un tissu conjonctif dense, surmonté de cellules endothéliales, correspondant à un repli de l'intima.
 Elles permettent la circulation du sang dans le sens organe/cœur mais empêchent le reflux veineux.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Veine</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Veine</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Pendant la vie fœtale, elles se décomposent en quatre paires de veines principales :
 veines vitellines ;
@@ -580,94 +704,100 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Veine</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Veine</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Vascularisation des veines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La vascularisation des veines est permise par l'existence de vasa venorum, analogues aux vasa vasorum présents au niveau des artères.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Veine</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Veine</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Veinite ; c'est l'infection, relativement fréquente, d'une veine près de l'endroit de sa perforation par un cathéter (plaie iatrogènes)[2] ou après une opération de sclérose de varices. Le risque de veinite augmente quand les bonnes pratiques d'hygiène ne sont pas respectées lors de la pose et/ou de l’entretien des cathéters (hygiène rigoureuse : protocole des quatre temps pour la pose d’une voie veineuse périphérique, lavage des mains (ou application d'une solution hydroalcoolique) avant manipulation, utilisation quotidienne des compresses bétadinées pour les manipulations des lignes de perfusion, pose immédiate de bouchon après chaque perfusion...)[3]. La sangsue médicinale pourrait être un moyen de traiter la veinite[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Veinite ; c'est l'infection, relativement fréquente, d'une veine près de l'endroit de sa perforation par un cathéter (plaie iatrogènes) ou après une opération de sclérose de varices. Le risque de veinite augmente quand les bonnes pratiques d'hygiène ne sont pas respectées lors de la pose et/ou de l’entretien des cathéters (hygiène rigoureuse : protocole des quatre temps pour la pose d’une voie veineuse périphérique, lavage des mains (ou application d'une solution hydroalcoolique) avant manipulation, utilisation quotidienne des compresses bétadinées pour les manipulations des lignes de perfusion, pose immédiate de bouchon après chaque perfusion...). La sangsue médicinale pourrait être un moyen de traiter la veinite.
 Thrombose, thrombophlébites.
 Caillot sanguin.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Veine</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Veine</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Liste des veines chez humain</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Veines des membres inférieurs :
 veine glutéale inférieure
